--- a/caballo/tiempoCaballo.xlsx
+++ b/caballo/tiempoCaballo.xlsx
@@ -114,27 +114,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>TIME vs</a:t>
+              <a:rPr lang="es-CO"/>
+              <a:t>TIME vs N</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -152,13 +153,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -177,57 +184,91 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TIME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$5</c:f>
+              <c:f>Hoja1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -235,20 +276,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$5</c:f>
+              <c:f>Hoja1!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>33554432</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>68719476736</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>562949953421312</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1.8446744073709552E+19</c:v>
                 </c:pt>
               </c:numCache>
@@ -264,53 +314,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1462806096"/>
-        <c:axId val="-1462804464"/>
+        <c:axId val="-1521213120"/>
+        <c:axId val="-1521210944"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>t(N)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="9525" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst/>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="circle"/>
-                  <c:size val="5"/>
+                  <c:size val="6"/>
                   <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="rnd">
                       <a:solidFill>
                         <a:schemeClr val="accent1"/>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
-                    <a:effectLst/>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                   </c:spPr>
                 </c:marker>
                 <c:xVal>
@@ -318,23 +387,32 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$2:$A$5</c15:sqref>
+                          <c15:sqref>Hoja1!$A$2:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
                         <c:v>5</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="4">
                         <c:v>6</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="5">
                         <c:v>7</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="6">
                         <c:v>8</c:v>
                       </c:pt>
                     </c:numCache>
@@ -345,24 +423,33 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$2:$B$5</c15:sqref>
+                          <c15:sqref>Hoja1!$B$2:$B$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#,##0.00000</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0" formatCode="General">
-                        <c:v>2.26657E-2</c:v>
+                        <c:v>4.2765499999999998E-4</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>7.8128200000000003</c:v>
+                        <c:v>2.1382699999999998E-3</c:v>
                       </c:pt>
                       <c:pt idx="2" formatCode="#,##0.0000">
-                        <c:v>10.254300000000001</c:v>
+                        <c:v>0.14582999999999999</c:v>
                       </c:pt>
                       <c:pt idx="3" formatCode="General">
-                        <c:v>14730</c:v>
+                        <c:v>2.1382700000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="#,##0.0000">
+                        <c:v>10.4305</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.5496700000000008</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>15103</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -374,7 +461,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1462806096"/>
+        <c:axId val="-1521213120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,9 +471,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -402,12 +489,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -418,9 +503,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -431,12 +515,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462804464"/>
+        <c:crossAx val="-1521210944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1462804464"/>
+        <c:axId val="-1521210944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,9 +530,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -464,12 +548,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -480,9 +562,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -493,7 +574,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462806096"/>
+        <c:crossAx val="-1521213120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -523,9 +604,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -542,17 +622,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -589,31 +680,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>t(N) vs N</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -628,13 +694,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -654,45 +726,90 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$5</c:f>
+              <c:f>Hoja1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -700,21 +817,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$5</c:f>
+              <c:f>Hoja1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2.26657E-2</c:v>
+                  <c:v>4.2765499999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8128200000000003</c:v>
+                  <c:v>2.1382699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0.0000">
-                  <c:v>10.254300000000001</c:v>
+                  <c:v>0.14582999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>14730</c:v>
+                  <c:v>2.1382700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.0000">
+                  <c:v>10.4305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5496700000000008</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>15103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,11 +855,154 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1470755152"/>
-        <c:axId val="-1470752976"/>
+        <c:axId val="-1560669392"/>
+        <c:axId val="-1560671568"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent2">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent2">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:srgbClr val="000000">
+                          <a:alpha val="63000"/>
+                        </a:srgbClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$C$2:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>65536</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33554432</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>68719476736</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>562949953421312</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.8446744073709552E+19</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1470755152"/>
+        <c:axId val="-1560669392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -743,9 +1012,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -761,12 +1030,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -777,9 +1044,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -790,12 +1056,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1470752976"/>
+        <c:crossAx val="-1560671568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1470752976"/>
+        <c:axId val="-1560671568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,9 +1071,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -823,12 +1089,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -839,9 +1103,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -852,7 +1115,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1470755152"/>
+        <c:crossAx val="-1560669392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -864,22 +1127,64 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -982,62 +1287,66 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1046,9 +1355,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1067,14 +1375,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1083,20 +1383,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1105,13 +1405,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1123,30 +1423,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1162,21 +1463,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1195,14 +1493,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1214,14 +1511,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1235,9 +1532,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1251,12 +1547,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1268,9 +1558,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1285,14 +1575,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1304,14 +1593,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1323,14 +1612,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1339,14 +1627,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1354,7 +1641,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1367,11 +1654,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1379,14 +1674,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1398,12 +1693,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1419,7 +1721,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1428,9 +1730,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1446,14 +1747,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1462,20 +1762,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1487,73 +1784,71 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1562,9 +1857,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1583,14 +1877,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1599,20 +1885,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1621,13 +1907,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1639,30 +1925,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1678,21 +1965,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1711,14 +1995,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1730,14 +2013,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1751,9 +2034,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1767,12 +2049,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1784,9 +2060,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1801,14 +2077,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1820,14 +2095,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1839,14 +2114,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1855,14 +2129,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1870,7 +2143,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1883,11 +2156,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1895,14 +2176,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1914,12 +2195,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1935,7 +2223,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1944,9 +2232,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1962,14 +2249,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1978,20 +2264,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2003,12 +2286,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2018,19 +2295,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>14286</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2047,20 +2324,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2341,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,48 +2639,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2.26657E-2</v>
+        <v>4.2765499999999998E-4</v>
       </c>
       <c r="C2">
         <f>2^(A2*A2)</f>
-        <v>33554432</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>7.8128200000000003</v>
+        <v>2.1382699999999998E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">2^(A3*A3)</f>
-        <v>68719476736</v>
+        <f t="shared" ref="C3:C8" si="0">2^(A3*A3)</f>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.14582999999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2.1382700000000001E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10.4305</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>68719476736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>10.254300000000001</v>
+      <c r="B7" s="2">
+        <v>8.5496700000000008</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>562949953421312</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>14730</v>
+      <c r="B8">
+        <v>15103</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>1.8446744073709552E+19</v>
       </c>
